--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManishaRamidi\Desktop\Manisha\installations\WorkSpace\ElearningExercise\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA8096-47CB-4F76-B31C-DFCE4DF30757}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10354285-DBD9-4A16-8A18-E9BCEA5A55CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF358E69-6CA5-45D0-8085-055C1EA19160}"/>
   </bookViews>
@@ -55,10 +55,10 @@
     <t>ELSC_019</t>
   </si>
   <si>
-    <t>Manipal</t>
-  </si>
-  <si>
-    <t>ELSC_019_s8</t>
+    <t>MANIPAL</t>
+  </si>
+  <si>
+    <t>ELSC_019_s10</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
